--- a/test/TestResult.xlsx
+++ b/test/TestResult.xlsx
@@ -446,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,6 +1159,180 @@
         <v>0</v>
       </c>
       <c r="AC8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9"/>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10"/>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
       </c>
     </row>

--- a/test/TestResult.xlsx
+++ b/test/TestResult.xlsx
@@ -123,7 +123,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,9 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -141,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -443,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,6 +629,180 @@
         <v>1</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4"/>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>0</v>
       </c>
     </row>
